--- a/pareto/case_studies/input_data_generic_strategic_case_study_Treatment_Demo.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_Treatment_Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C1AFE0-CEDB-482F-B9AD-716C2E20363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D9A95-454F-465C-BC20-37E2C9F5E241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="1" activeTab="1" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-5550" yWindow="-13455" windowWidth="17280" windowHeight="9885" tabRatio="834" firstSheet="41" activeTab="41" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2248,121 +2248,48 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>84949</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>43851</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141717</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Group 4">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF046D9-B777-8894-5A9C-9B69EF8DA434}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACF0715-8C0C-5BA8-B3C4-D41F89DC3FAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="358140" y="238125"/>
-          <a:ext cx="12563475" cy="5639929"/>
-          <a:chOff x="0" y="102870"/>
-          <a:chExt cx="12563475" cy="5643739"/>
+          <a:off x="180975" y="400050"/>
+          <a:ext cx="13912251" cy="5351892"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="Picture 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217C791C-DB06-B32D-CBC7-34CCB4447D84}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="235565"/>
-            <a:ext cx="12308821" cy="5511044"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47F8E1D-4567-818C-F857-53DAA9123266}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9946005" y="102870"/>
-            <a:ext cx="2617470" cy="750570"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5573,7 +5500,9 @@
   </sheetPr>
   <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9584,9 +9513,7 @@
   </sheetPr>
   <dimension ref="A1:BD16"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10301,9 +10228,7 @@
   </sheetPr>
   <dimension ref="A1:BA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13626,9 +13551,7 @@
   </sheetPr>
   <dimension ref="A1:BA13"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14202,9 +14125,7 @@
   </sheetPr>
   <dimension ref="A1:AU59"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="S24" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
+    <sheetView showZeros="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22545,9 +22466,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22623,9 +22542,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22684,9 +22601,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22832,9 +22747,7 @@
   </sheetPr>
   <dimension ref="A1:BA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -23543,9 +23456,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -23605,9 +23516,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -23658,9 +23567,7 @@
   </sheetPr>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -23871,7 +23778,7 @@
   <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -25100,9 +25007,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25178,9 +25083,7 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25484,9 +25387,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25545,9 +25446,7 @@
   </sheetPr>
   <dimension ref="A1:AU59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -33871,9 +33770,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -33924,9 +33821,7 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -34113,9 +34008,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -34503,9 +34396,7 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -34671,9 +34562,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -34740,9 +34629,7 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -35061,9 +34948,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -35130,8 +35015,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -35661,7 +35546,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E6"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -35782,9 +35667,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -35829,7 +35712,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C5" sqref="C5:E6"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:E6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42703,9 +42586,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -42846,9 +42727,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -42923,9 +42802,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43000,7 +42877,9 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43500,7 +43379,9 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -43649,9 +43530,7 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43819,9 +43698,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43879,9 +43756,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_Treatment_Demo.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_Treatment_Demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teera\work\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D9A95-454F-465C-BC20-37E2C9F5E241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E42D8-BDA7-45C1-ACCE-3BFBB1FDDD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5550" yWindow="-13455" windowWidth="17280" windowHeight="9885" tabRatio="834" firstSheet="41" activeTab="41" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="64" activeTab="69" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -82,12 +82,13 @@
     <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId67"/>
     <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId68"/>
     <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId69"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId70"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId71"/>
-    <sheet name="Economics" sheetId="95" r:id="rId72"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId73"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId74"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId75"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId70"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId71"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId72"/>
+    <sheet name="Economics" sheetId="95" r:id="rId73"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId74"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId75"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId76"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
@@ -328,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="301">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1229,6 +1230,9 @@
   <si>
     <t>Table with Indication  if the treatment technology is for desalination</t>
   </si>
+  <si>
+    <t>Table with Indication if the treatment site is for desalination technologies (1) or non-desalination technologies (0)</t>
+  </si>
 </sst>
 </file>
 
@@ -1345,7 +1349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1852,6 +1856,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1859,7 +1878,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2168,6 +2187,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2685,15 +2707,15 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2705,7 +2727,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>0</v>
@@ -2719,7 +2741,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2731,7 +2753,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>1</v>
@@ -2745,7 +2767,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>2</v>
@@ -2759,7 +2781,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>3</v>
@@ -2773,7 +2795,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>4</v>
@@ -2787,7 +2809,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>5</v>
@@ -2801,7 +2823,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>6</v>
@@ -2815,7 +2837,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2827,7 +2849,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
@@ -2841,7 +2863,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>8</v>
@@ -2855,7 +2877,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2867,7 +2889,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>9</v>
@@ -2881,7 +2903,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>10</v>
@@ -2895,7 +2917,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>11</v>
@@ -2909,7 +2931,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>12</v>
@@ -2923,7 +2945,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2935,7 +2957,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2947,7 +2969,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>13</v>
@@ -2963,7 +2985,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2975,7 +2997,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>15</v>
@@ -2991,7 +3013,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>17</v>
@@ -3007,7 +3029,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>19</v>
@@ -3023,7 +3045,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>21</v>
@@ -3039,7 +3061,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>23</v>
@@ -3055,7 +3077,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>25</v>
@@ -3071,7 +3093,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>27</v>
@@ -3087,7 +3109,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>29</v>
@@ -3103,7 +3125,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>31</v>
@@ -3122,7 +3144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>34</v>
@@ -3138,7 +3160,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>36</v>
@@ -3154,7 +3176,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>38</v>
@@ -3170,7 +3192,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>40</v>
@@ -3186,7 +3208,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>42</v>
@@ -3202,7 +3224,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3244,33 +3266,33 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>137</v>
       </c>
@@ -3293,7 +3315,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
@@ -3316,7 +3338,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>139</v>
       </c>
@@ -3339,7 +3361,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>140</v>
       </c>
@@ -3362,7 +3384,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>141</v>
       </c>
@@ -3385,7 +3407,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3405,7 +3427,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3443,30 +3465,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
@@ -3474,12 +3496,12 @@
       <c r="O3" s="98"/>
       <c r="P3" s="98"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>145</v>
       </c>
@@ -3499,28 +3521,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3541,7 +3563,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3561,7 +3583,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3581,7 +3603,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3601,7 +3623,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3621,7 +3643,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3641,7 +3663,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3678,30 +3700,30 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>149</v>
       </c>
@@ -3724,7 +3746,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>150</v>
       </c>
@@ -3747,7 +3769,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>151</v>
       </c>
@@ -3770,7 +3792,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>152</v>
       </c>
@@ -3793,7 +3815,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>153</v>
       </c>
@@ -3816,7 +3838,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>154</v>
       </c>
@@ -3839,7 +3861,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>155</v>
       </c>
@@ -3862,107 +3884,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>176</v>
       </c>
@@ -3985,30 +4007,30 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>179</v>
       </c>
@@ -4031,7 +4053,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>180</v>
       </c>
@@ -4054,7 +4076,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>181</v>
       </c>
@@ -4077,7 +4099,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>182</v>
       </c>
@@ -4100,7 +4122,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4137,30 +4159,30 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>185</v>
       </c>
@@ -4183,7 +4205,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>186</v>
       </c>
@@ -4206,7 +4228,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>187</v>
       </c>
@@ -4229,7 +4251,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4250,7 +4272,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4271,7 +4293,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4305,33 +4327,33 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>190</v>
       </c>
@@ -4354,7 +4376,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>191</v>
       </c>
@@ -4377,7 +4399,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>192</v>
       </c>
@@ -4400,7 +4422,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4421,7 +4443,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4442,7 +4464,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4479,30 +4501,30 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>195</v>
       </c>
@@ -4525,7 +4547,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>196</v>
       </c>
@@ -4548,7 +4570,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>197</v>
       </c>
@@ -4571,7 +4593,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4592,7 +4614,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4613,7 +4635,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4650,18 +4672,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -4753,7 +4775,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -4789,7 +4811,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -4825,7 +4847,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -4861,7 +4883,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -4897,7 +4919,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -4935,7 +4957,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -4971,7 +4993,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -5007,7 +5029,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -5043,7 +5065,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -5079,7 +5101,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -5115,7 +5137,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -5151,7 +5173,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -5187,7 +5209,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -5223,7 +5245,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>102</v>
       </c>
@@ -5277,18 +5299,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -5380,7 +5402,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -5416,7 +5438,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -5452,7 +5474,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -5504,61 +5526,61 @@
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -5578,18 +5600,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -5603,7 +5625,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -5611,7 +5633,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -5619,7 +5641,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -5644,18 +5666,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
@@ -5747,7 +5769,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>148</v>
       </c>
@@ -5783,7 +5805,7 @@
       <c r="AC3" s="101"/>
       <c r="AD3" s="102"/>
     </row>
-    <row r="4" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>149</v>
       </c>
@@ -5823,7 +5845,7 @@
       <c r="AC4" s="101"/>
       <c r="AD4" s="102"/>
     </row>
-    <row r="5" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>150</v>
       </c>
@@ -5861,7 +5883,7 @@
       <c r="AC5" s="101"/>
       <c r="AD5" s="102"/>
     </row>
-    <row r="6" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
         <v>151</v>
       </c>
@@ -5899,7 +5921,7 @@
       <c r="AC6" s="101"/>
       <c r="AD6" s="102"/>
     </row>
-    <row r="7" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
         <v>152</v>
       </c>
@@ -5937,7 +5959,7 @@
       <c r="AC7" s="101"/>
       <c r="AD7" s="102"/>
     </row>
-    <row r="8" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>153</v>
       </c>
@@ -5975,7 +5997,7 @@
       <c r="AC8" s="101"/>
       <c r="AD8" s="102"/>
     </row>
-    <row r="9" spans="1:30" s="104" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="104" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
         <v>154</v>
       </c>
@@ -6015,7 +6037,7 @@
       <c r="AC9" s="101"/>
       <c r="AD9" s="102"/>
     </row>
-    <row r="10" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
         <v>155</v>
       </c>
@@ -6053,7 +6075,7 @@
       <c r="AC10" s="101"/>
       <c r="AD10" s="102"/>
     </row>
-    <row r="11" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="100" t="s">
         <v>156</v>
       </c>
@@ -6093,7 +6115,7 @@
       <c r="AC11" s="101"/>
       <c r="AD11" s="102"/>
     </row>
-    <row r="12" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="106" t="s">
         <v>157</v>
       </c>
@@ -6129,7 +6151,7 @@
       <c r="AC12" s="105"/>
       <c r="AD12" s="107"/>
     </row>
-    <row r="13" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
         <v>158</v>
       </c>
@@ -6167,7 +6189,7 @@
       <c r="AC13" s="101"/>
       <c r="AD13" s="102"/>
     </row>
-    <row r="14" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
         <v>159</v>
       </c>
@@ -6203,7 +6225,7 @@
       <c r="AC14" s="105"/>
       <c r="AD14" s="107"/>
     </row>
-    <row r="15" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="100" t="s">
         <v>160</v>
       </c>
@@ -6241,7 +6263,7 @@
       <c r="AC15" s="101"/>
       <c r="AD15" s="102"/>
     </row>
-    <row r="16" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="100" t="s">
         <v>161</v>
       </c>
@@ -6281,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="100" t="s">
         <v>162</v>
       </c>
@@ -6319,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="100" t="s">
         <v>163</v>
       </c>
@@ -6357,7 +6379,7 @@
       <c r="AC18" s="101"/>
       <c r="AD18" s="102"/>
     </row>
-    <row r="19" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="100" t="s">
         <v>164</v>
       </c>
@@ -6393,7 +6415,7 @@
       <c r="AC19" s="101"/>
       <c r="AD19" s="102"/>
     </row>
-    <row r="20" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="100" t="s">
         <v>165</v>
       </c>
@@ -6429,7 +6451,7 @@
       <c r="AC20" s="101"/>
       <c r="AD20" s="102"/>
     </row>
-    <row r="21" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="100" t="s">
         <v>166</v>
       </c>
@@ -6467,7 +6489,7 @@
       <c r="AC21" s="101"/>
       <c r="AD21" s="102"/>
     </row>
-    <row r="22" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>167</v>
       </c>
@@ -6505,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>168</v>
       </c>
@@ -6543,7 +6565,7 @@
       <c r="AC23" s="101"/>
       <c r="AD23" s="102"/>
     </row>
-    <row r="24" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>169</v>
       </c>
@@ -6583,7 +6605,7 @@
       <c r="AC24" s="101"/>
       <c r="AD24" s="102"/>
     </row>
-    <row r="25" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="100" t="s">
         <v>170</v>
       </c>
@@ -6621,7 +6643,7 @@
       <c r="AC25" s="101"/>
       <c r="AD25" s="102"/>
     </row>
-    <row r="26" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="100" t="s">
         <v>171</v>
       </c>
@@ -6659,7 +6681,7 @@
       <c r="AC26" s="101"/>
       <c r="AD26" s="102"/>
     </row>
-    <row r="27" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="100" t="s">
         <v>172</v>
       </c>
@@ -6697,7 +6719,7 @@
       <c r="AC27" s="101"/>
       <c r="AD27" s="102"/>
     </row>
-    <row r="28" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="106" t="s">
         <v>173</v>
       </c>
@@ -6735,7 +6757,7 @@
       <c r="AC28" s="105"/>
       <c r="AD28" s="107"/>
     </row>
-    <row r="29" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="100" t="s">
         <v>174</v>
       </c>
@@ -6771,7 +6793,7 @@
       <c r="AC29" s="101"/>
       <c r="AD29" s="102"/>
     </row>
-    <row r="30" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="106" t="s">
         <v>175</v>
       </c>
@@ -6805,7 +6827,7 @@
       <c r="AC30" s="105"/>
       <c r="AD30" s="107"/>
     </row>
-    <row r="31" spans="1:30" s="104" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" s="104" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="109" t="s">
         <v>176</v>
       </c>
@@ -6863,18 +6885,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
@@ -6888,7 +6910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>148</v>
       </c>
@@ -6896,7 +6918,7 @@
       <c r="C3" s="45"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>149</v>
       </c>
@@ -6904,7 +6926,7 @@
       <c r="C4" s="45"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>150</v>
       </c>
@@ -6912,7 +6934,7 @@
       <c r="C5" s="45"/>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>151</v>
       </c>
@@ -6920,7 +6942,7 @@
       <c r="C6" s="45"/>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>152</v>
       </c>
@@ -6928,7 +6950,7 @@
       <c r="C7" s="45"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>153</v>
       </c>
@@ -6936,7 +6958,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>154</v>
       </c>
@@ -6944,7 +6966,7 @@
       <c r="C9" s="45"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>155</v>
       </c>
@@ -6952,7 +6974,7 @@
       <c r="C10" s="45"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>156</v>
       </c>
@@ -6960,7 +6982,7 @@
       <c r="C11" s="45"/>
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>157</v>
       </c>
@@ -6968,7 +6990,7 @@
       <c r="C12" s="45"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>158</v>
       </c>
@@ -6976,7 +6998,7 @@
       <c r="C13" s="45"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>159</v>
       </c>
@@ -6984,7 +7006,7 @@
       <c r="C14" s="45"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>160</v>
       </c>
@@ -6992,7 +7014,7 @@
       <c r="C15" s="45"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>161</v>
       </c>
@@ -7000,7 +7022,7 @@
       <c r="C16" s="45"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>162</v>
       </c>
@@ -7008,7 +7030,7 @@
       <c r="C17" s="45"/>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>163</v>
       </c>
@@ -7016,7 +7038,7 @@
       <c r="C18" s="45"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>164</v>
       </c>
@@ -7024,7 +7046,7 @@
       <c r="C19" s="45"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>165</v>
       </c>
@@ -7032,7 +7054,7 @@
       <c r="C20" s="45"/>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>166</v>
       </c>
@@ -7040,7 +7062,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>167</v>
       </c>
@@ -7048,7 +7070,7 @@
       <c r="C22" s="45"/>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>168</v>
       </c>
@@ -7056,7 +7078,7 @@
       <c r="C23" s="45"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>169</v>
       </c>
@@ -7064,7 +7086,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>170</v>
       </c>
@@ -7072,7 +7094,7 @@
       <c r="C25" s="45"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>171</v>
       </c>
@@ -7080,7 +7102,7 @@
       <c r="C26" s="45"/>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>172</v>
       </c>
@@ -7088,7 +7110,7 @@
       <c r="C27" s="45"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>173</v>
       </c>
@@ -7096,7 +7118,7 @@
       <c r="C28" s="45"/>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>174</v>
       </c>
@@ -7104,7 +7126,7 @@
       <c r="C29" s="45"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
@@ -7112,7 +7134,7 @@
       <c r="C30" s="45"/>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>176</v>
       </c>
@@ -7137,20 +7159,20 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" style="104"/>
-    <col min="6" max="6" width="9.33203125" style="108"/>
-    <col min="7" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" style="104"/>
+    <col min="6" max="6" width="9.28515625" style="108"/>
+    <col min="7" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
@@ -7170,7 +7192,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>148</v>
       </c>
@@ -7182,7 +7204,7 @@
       <c r="E3" s="101"/>
       <c r="F3" s="107"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>149</v>
       </c>
@@ -7192,7 +7214,7 @@
       <c r="E4" s="101"/>
       <c r="F4" s="107"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>150</v>
       </c>
@@ -7202,7 +7224,7 @@
       <c r="E5" s="101"/>
       <c r="F5" s="107"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>151</v>
       </c>
@@ -7214,7 +7236,7 @@
       <c r="E6" s="101"/>
       <c r="F6" s="107"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>152</v>
       </c>
@@ -7224,7 +7246,7 @@
       <c r="E7" s="101"/>
       <c r="F7" s="107"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>153</v>
       </c>
@@ -7234,7 +7256,7 @@
       <c r="E8" s="101"/>
       <c r="F8" s="107"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>154</v>
       </c>
@@ -7244,7 +7266,7 @@
       <c r="E9" s="101"/>
       <c r="F9" s="107"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>155</v>
       </c>
@@ -7254,7 +7276,7 @@
       <c r="E10" s="101"/>
       <c r="F10" s="107"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>156</v>
       </c>
@@ -7264,7 +7286,7 @@
       <c r="E11" s="101"/>
       <c r="F11" s="107"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>157</v>
       </c>
@@ -7274,7 +7296,7 @@
       <c r="E12" s="101"/>
       <c r="F12" s="107"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>158</v>
       </c>
@@ -7284,7 +7306,7 @@
       <c r="E13" s="101"/>
       <c r="F13" s="107"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>159</v>
       </c>
@@ -7294,7 +7316,7 @@
       <c r="E14" s="101"/>
       <c r="F14" s="107"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>160</v>
       </c>
@@ -7306,7 +7328,7 @@
       <c r="E15" s="101"/>
       <c r="F15" s="107"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>161</v>
       </c>
@@ -7316,7 +7338,7 @@
       <c r="E16" s="101"/>
       <c r="F16" s="107"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>162</v>
       </c>
@@ -7326,7 +7348,7 @@
       <c r="E17" s="101"/>
       <c r="F17" s="107"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>163</v>
       </c>
@@ -7336,7 +7358,7 @@
       <c r="E18" s="101"/>
       <c r="F18" s="107"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>164</v>
       </c>
@@ -7348,7 +7370,7 @@
       </c>
       <c r="F19" s="107"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>165</v>
       </c>
@@ -7360,7 +7382,7 @@
       </c>
       <c r="F20" s="107"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>166</v>
       </c>
@@ -7370,7 +7392,7 @@
       <c r="E21" s="101"/>
       <c r="F21" s="107"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>167</v>
       </c>
@@ -7380,7 +7402,7 @@
       <c r="E22" s="101"/>
       <c r="F22" s="107"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>168</v>
       </c>
@@ -7390,7 +7412,7 @@
       <c r="E23" s="101"/>
       <c r="F23" s="107"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>169</v>
       </c>
@@ -7402,7 +7424,7 @@
       <c r="E24" s="101"/>
       <c r="F24" s="107"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>170</v>
       </c>
@@ -7412,7 +7434,7 @@
       <c r="E25" s="101"/>
       <c r="F25" s="107"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>171</v>
       </c>
@@ -7422,7 +7444,7 @@
       <c r="E26" s="101"/>
       <c r="F26" s="107"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>172</v>
       </c>
@@ -7432,7 +7454,7 @@
       <c r="E27" s="101"/>
       <c r="F27" s="107"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>173</v>
       </c>
@@ -7444,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>174</v>
       </c>
@@ -7454,7 +7476,7 @@
       <c r="E29" s="101"/>
       <c r="F29" s="107"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
@@ -7464,7 +7486,7 @@
       <c r="E30" s="101"/>
       <c r="F30" s="107"/>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>176</v>
       </c>
@@ -7492,18 +7514,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
@@ -7526,7 +7548,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>148</v>
       </c>
@@ -7537,7 +7559,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>149</v>
       </c>
@@ -7548,7 +7570,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>150</v>
       </c>
@@ -7561,7 +7583,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>151</v>
       </c>
@@ -7572,7 +7594,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>152</v>
       </c>
@@ -7583,7 +7605,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>153</v>
       </c>
@@ -7594,7 +7616,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>154</v>
       </c>
@@ -7605,7 +7627,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>155</v>
       </c>
@@ -7616,7 +7638,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>156</v>
       </c>
@@ -7627,7 +7649,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>157</v>
       </c>
@@ -7640,7 +7662,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>158</v>
       </c>
@@ -7651,7 +7673,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>159</v>
       </c>
@@ -7664,7 +7686,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>160</v>
       </c>
@@ -7675,7 +7697,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>161</v>
       </c>
@@ -7686,7 +7708,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>162</v>
       </c>
@@ -7697,7 +7719,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>163</v>
       </c>
@@ -7708,7 +7730,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>164</v>
       </c>
@@ -7719,7 +7741,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>165</v>
       </c>
@@ -7730,7 +7752,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>166</v>
       </c>
@@ -7741,7 +7763,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>167</v>
       </c>
@@ -7754,7 +7776,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>168</v>
       </c>
@@ -7765,7 +7787,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>169</v>
       </c>
@@ -7776,7 +7798,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>170</v>
       </c>
@@ -7789,7 +7811,7 @@
       </c>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>171</v>
       </c>
@@ -7802,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>172</v>
       </c>
@@ -7813,7 +7835,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>173</v>
       </c>
@@ -7824,7 +7846,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>174</v>
       </c>
@@ -7835,7 +7857,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
@@ -7846,7 +7868,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>176</v>
       </c>
@@ -7875,18 +7897,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
@@ -7900,7 +7922,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>159</v>
       </c>
@@ -7925,18 +7947,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -7944,19 +7966,19 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="32"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="32"/>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>134</v>
       </c>
@@ -7979,18 +8001,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -8001,7 +8023,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
@@ -8012,7 +8034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -8041,18 +8063,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8066,7 +8088,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -8074,7 +8096,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -8082,7 +8104,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -8090,7 +8112,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -8098,7 +8120,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -8106,7 +8128,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -8132,9 +8154,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
@@ -8142,7 +8164,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8156,7 +8178,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -8164,7 +8186,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -8174,7 +8196,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -8182,7 +8204,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -8192,7 +8214,7 @@
       </c>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -8202,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -8226,33 +8248,33 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.33203125" style="1"/>
-    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.28515625" style="1"/>
+    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -8272,7 +8294,7 @@
       <c r="J2" s="87"/>
       <c r="K2" s="89"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>49</v>
       </c>
@@ -8302,7 +8324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>56</v>
       </c>
@@ -8326,7 +8348,7 @@
       <c r="J4" s="77"/>
       <c r="K4" s="79"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>61</v>
       </c>
@@ -8344,7 +8366,7 @@
       <c r="J5" s="78"/>
       <c r="K5" s="80"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>64</v>
       </c>
@@ -8368,7 +8390,7 @@
       <c r="J6" s="78"/>
       <c r="K6" s="80"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>68</v>
       </c>
@@ -8392,7 +8414,7 @@
       <c r="J7" s="78"/>
       <c r="K7" s="80"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>73</v>
       </c>
@@ -8431,7 +8453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>77</v>
       </c>
@@ -8482,7 +8504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -8505,7 +8527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -8513,7 +8535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -8561,14 +8583,14 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -8582,7 +8604,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>132</v>
       </c>
@@ -8592,7 +8614,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>133</v>
       </c>
@@ -8602,7 +8624,7 @@
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>134</v>
       </c>
@@ -8628,18 +8650,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8662,7 +8684,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -8675,7 +8697,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -8688,7 +8710,7 @@
       <c r="F4" s="45"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -8701,7 +8723,7 @@
       <c r="F5" s="45"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -8714,7 +8736,7 @@
       <c r="F6" s="45"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -8727,7 +8749,7 @@
       </c>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -8757,18 +8779,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -8782,7 +8804,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -8790,7 +8812,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -8798,7 +8820,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -8806,7 +8828,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -8814,7 +8836,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -8822,7 +8844,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -8830,7 +8852,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -8838,7 +8860,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -8846,7 +8868,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -8854,7 +8876,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -8862,7 +8884,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -8870,7 +8892,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -8878,7 +8900,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -8886,7 +8908,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>102</v>
       </c>
@@ -8912,18 +8934,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -8934,7 +8956,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
@@ -8945,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -8973,18 +8995,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -9004,7 +9026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -9024,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -9044,7 +9066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -9064,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -9084,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -9104,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -9124,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -9144,7 +9166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -9164,7 +9186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -9184,7 +9206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -9204,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -9224,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -9244,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -9264,7 +9286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>102</v>
       </c>
@@ -9301,18 +9323,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -9332,7 +9354,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -9352,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>120</v>
       </c>
@@ -9372,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -9409,18 +9431,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -9434,7 +9456,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -9442,7 +9464,7 @@
       <c r="C3" s="33"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -9450,7 +9472,7 @@
       <c r="C4" s="33"/>
       <c r="D4" s="35"/>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -9475,18 +9497,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -9494,7 +9516,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>119</v>
       </c>
@@ -9513,26 +9535,28 @@
   </sheetPr>
   <dimension ref="A1:BD16"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.33203125" style="1"/>
-    <col min="54" max="54" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.28515625" style="1"/>
+    <col min="54" max="54" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>201</v>
       </c>
@@ -9693,7 +9717,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>119</v>
       </c>
@@ -9856,7 +9880,7 @@
       <c r="BB3" s="129"/>
       <c r="BC3" s="129"/>
     </row>
-    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>120</v>
       </c>
@@ -10020,7 +10044,7 @@
       <c r="BC4" s="129"/>
       <c r="BD4" s="97"/>
     </row>
-    <row r="5" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>121</v>
       </c>
@@ -10168,48 +10192,48 @@
       <c r="BC5" s="128"/>
       <c r="BD5" s="96"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B9" s="62"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -10230,22 +10254,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -10406,7 +10430,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -10619,7 +10643,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -10832,7 +10856,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -11045,7 +11069,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -11258,7 +11282,7 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -11471,7 +11495,7 @@
         <v>1441.8869978578632</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -11683,7 +11707,7 @@
         <v>3575.8350056831673</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -11896,7 +11920,7 @@
         <v>3056.3212211693481</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -12109,7 +12133,7 @@
         <v>2802.9780084908152</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -12322,7 +12346,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -12535,7 +12559,7 @@
         <v>2722.3915096839892</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -12748,7 +12772,7 @@
         <v>1494.1627838751133</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -12961,7 +12985,7 @@
         <v>1603.7712112255813</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -13174,7 +13198,7 @@
         <v>1421.1498787463106</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>102</v>
       </c>
@@ -13387,17 +13411,17 @@
         <v>1914.5624796833633</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="61"/>
       <c r="C17" s="62"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="62"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="62"/>
     </row>
   </sheetData>
@@ -13418,24 +13442,24 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
@@ -13456,7 +13480,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -13477,62 +13501,62 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>102</v>
       </c>
@@ -13553,23 +13577,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -13730,7 +13754,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -13907,7 +13931,7 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -14012,7 +14036,7 @@
         <v>12125.732532083186</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -14069,44 +14093,44 @@
       <c r="AZ5" s="39"/>
       <c r="BA5" s="40"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="62"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -14127,12 +14151,12 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites  [bbl/day]</v>
@@ -14158,7 +14182,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -14301,7 +14325,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -14444,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -14587,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -14730,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -14873,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -15016,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -15159,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -15302,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -15445,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -15588,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -15731,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -15874,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -16017,7 +16041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -16160,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -16303,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>119</v>
       </c>
@@ -16446,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -16589,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>121</v>
       </c>
@@ -16732,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>148</v>
       </c>
@@ -16875,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>149</v>
       </c>
@@ -17018,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>150</v>
       </c>
@@ -17161,7 +17185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>151</v>
       </c>
@@ -17304,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>152</v>
       </c>
@@ -17447,7 +17471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>153</v>
       </c>
@@ -17590,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>154</v>
       </c>
@@ -17733,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>155</v>
       </c>
@@ -17876,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>156</v>
       </c>
@@ -18019,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>157</v>
       </c>
@@ -18162,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>158</v>
       </c>
@@ -18305,7 +18329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>159</v>
       </c>
@@ -18448,7 +18472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>160</v>
       </c>
@@ -18591,7 +18615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>161</v>
       </c>
@@ -18734,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -18877,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>163</v>
       </c>
@@ -19020,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>164</v>
       </c>
@@ -19163,7 +19187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>165</v>
       </c>
@@ -19306,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>166</v>
       </c>
@@ -19449,7 +19473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>167</v>
       </c>
@@ -19592,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>168</v>
       </c>
@@ -19735,7 +19759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>169</v>
       </c>
@@ -19878,7 +19902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>170</v>
       </c>
@@ -20021,7 +20045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>171</v>
       </c>
@@ -20164,7 +20188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>172</v>
       </c>
@@ -20307,7 +20331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>173</v>
       </c>
@@ -20450,7 +20474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>174</v>
       </c>
@@ -20593,7 +20617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>175</v>
       </c>
@@ -20736,7 +20760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>176</v>
       </c>
@@ -20879,7 +20903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>132</v>
       </c>
@@ -21022,7 +21046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>133</v>
       </c>
@@ -21165,7 +21189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>134</v>
       </c>
@@ -21308,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>129</v>
       </c>
@@ -21451,7 +21475,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="53" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>130</v>
       </c>
@@ -21594,7 +21618,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>136</v>
       </c>
@@ -21737,7 +21761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>137</v>
       </c>
@@ -21880,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>138</v>
       </c>
@@ -22023,7 +22047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>139</v>
       </c>
@@ -22166,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>140</v>
       </c>
@@ -22309,7 +22333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>141</v>
       </c>
@@ -22466,21 +22490,21 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity  [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -22488,7 +22512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -22496,7 +22520,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>124</v>
       </c>
@@ -22504,7 +22528,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>125</v>
       </c>
@@ -22512,7 +22536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>126</v>
       </c>
@@ -22521,7 +22545,7 @@
       </c>
       <c r="C6" s="61"/>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>127</v>
       </c>
@@ -22544,19 +22568,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -22564,7 +22588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -22572,7 +22596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>133</v>
       </c>
@@ -22580,7 +22604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>134</v>
       </c>
@@ -22601,21 +22625,23 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -22632,7 +22658,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -22649,7 +22675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -22666,7 +22692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -22683,7 +22709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -22700,7 +22726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -22717,7 +22743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>141</v>
       </c>
@@ -22749,13 +22775,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
@@ -22779,7 +22805,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -22940,7 +22966,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>129</v>
       </c>
@@ -23153,7 +23179,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -23366,78 +23392,78 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -23458,20 +23484,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -23479,7 +23505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -23487,7 +23513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -23495,7 +23521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -23518,19 +23544,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity  [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -23538,7 +23564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -23546,7 +23572,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>120</v>
       </c>
@@ -23569,20 +23595,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -23590,175 +23616,175 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B3" s="38"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B5" s="38"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B6" s="38"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B7" s="38"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="38"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>154</v>
       </c>
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>155</v>
       </c>
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B12" s="38"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>160</v>
       </c>
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B16" s="38"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>162</v>
       </c>
       <c r="B17" s="38"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>163</v>
       </c>
       <c r="B18" s="38"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B19" s="38"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B20" s="38"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>168</v>
       </c>
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>169</v>
       </c>
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>170</v>
       </c>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>171</v>
       </c>
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>173</v>
       </c>
       <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
       <c r="B30" s="38"/>
     </row>
-    <row r="31" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>176</v>
       </c>
@@ -23781,21 +23807,21 @@
       <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site  [%]")</f>
         <v>Operating Capacity of Disposal Site  [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>278</v>
       </c>
@@ -23956,7 +23982,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>123</v>
       </c>
@@ -24117,7 +24143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>124</v>
       </c>
@@ -24278,7 +24304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>125</v>
       </c>
@@ -24439,7 +24465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>126</v>
       </c>
@@ -24601,7 +24627,7 @@
       </c>
       <c r="BD6" s="97"/>
     </row>
-    <row r="7" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>127</v>
       </c>
@@ -24764,50 +24790,50 @@
       <c r="BB7" s="9"/>
       <c r="BD7" s="96"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B11" s="62"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>298</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -24826,24 +24852,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
@@ -24864,7 +24890,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
@@ -24885,7 +24911,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
@@ -24906,7 +24932,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
@@ -24927,7 +24953,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
@@ -24948,47 +24974,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>117</v>
       </c>
@@ -25009,19 +25035,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -25029,7 +25055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -25037,7 +25063,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>124</v>
       </c>
@@ -25045,7 +25071,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>125</v>
       </c>
@@ -25053,7 +25079,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>126</v>
       </c>
@@ -25061,7 +25087,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>127</v>
       </c>
@@ -25085,20 +25111,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -25109,7 +25135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -25121,7 +25147,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -25132,7 +25158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -25143,7 +25169,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -25154,7 +25180,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -25165,7 +25191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -25176,7 +25202,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>136</v>
       </c>
@@ -25187,7 +25213,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>137</v>
       </c>
@@ -25198,7 +25224,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>138</v>
       </c>
@@ -25209,7 +25235,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>139</v>
       </c>
@@ -25220,7 +25246,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>140</v>
       </c>
@@ -25231,7 +25257,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>141</v>
       </c>
@@ -25242,7 +25268,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>136</v>
       </c>
@@ -25253,7 +25279,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>137</v>
       </c>
@@ -25264,7 +25290,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>138</v>
       </c>
@@ -25275,7 +25301,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>139</v>
       </c>
@@ -25286,7 +25312,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>140</v>
       </c>
@@ -25297,7 +25323,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>141</v>
       </c>
@@ -25308,7 +25334,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>136</v>
       </c>
@@ -25319,7 +25345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>137</v>
       </c>
@@ -25330,7 +25356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>138</v>
       </c>
@@ -25341,7 +25367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>139</v>
       </c>
@@ -25352,7 +25378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>140</v>
       </c>
@@ -25363,7 +25389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>141</v>
       </c>
@@ -25389,19 +25415,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -25409,7 +25435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -25417,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -25425,7 +25451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -25448,20 +25474,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -25604,7 +25630,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -25747,7 +25773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -25890,7 +25916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -26033,7 +26059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -26176,7 +26202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -26319,7 +26345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -26462,7 +26488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -26605,7 +26631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -26748,7 +26774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -26891,7 +26917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -27034,7 +27060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -27177,7 +27203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -27320,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -27463,7 +27489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -27606,7 +27632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>119</v>
       </c>
@@ -27749,7 +27775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -27892,7 +27918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>121</v>
       </c>
@@ -28035,7 +28061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>148</v>
       </c>
@@ -28178,7 +28204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>149</v>
       </c>
@@ -28321,7 +28347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>150</v>
       </c>
@@ -28464,7 +28490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>151</v>
       </c>
@@ -28607,7 +28633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>152</v>
       </c>
@@ -28750,7 +28776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>153</v>
       </c>
@@ -28893,7 +28919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>154</v>
       </c>
@@ -29036,7 +29062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>155</v>
       </c>
@@ -29179,7 +29205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>156</v>
       </c>
@@ -29322,7 +29348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>157</v>
       </c>
@@ -29465,7 +29491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>158</v>
       </c>
@@ -29608,7 +29634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>159</v>
       </c>
@@ -29751,7 +29777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>160</v>
       </c>
@@ -29894,7 +29920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>161</v>
       </c>
@@ -30037,7 +30063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -30180,7 +30206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>163</v>
       </c>
@@ -30323,7 +30349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>164</v>
       </c>
@@ -30466,7 +30492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>165</v>
       </c>
@@ -30609,7 +30635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>166</v>
       </c>
@@ -30752,7 +30778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>167</v>
       </c>
@@ -30895,7 +30921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>168</v>
       </c>
@@ -31038,7 +31064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>169</v>
       </c>
@@ -31181,7 +31207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>170</v>
       </c>
@@ -31324,7 +31350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>171</v>
       </c>
@@ -31467,7 +31493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>172</v>
       </c>
@@ -31610,7 +31636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>173</v>
       </c>
@@ -31753,7 +31779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>174</v>
       </c>
@@ -31896,7 +31922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>175</v>
       </c>
@@ -32039,7 +32065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>176</v>
       </c>
@@ -32182,7 +32208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>132</v>
       </c>
@@ -32325,7 +32351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>133</v>
       </c>
@@ -32468,7 +32494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>134</v>
       </c>
@@ -32611,7 +32637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>129</v>
       </c>
@@ -32754,7 +32780,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>130</v>
       </c>
@@ -32897,7 +32923,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>136</v>
       </c>
@@ -33040,7 +33066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>137</v>
       </c>
@@ -33183,7 +33209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>138</v>
       </c>
@@ -33326,7 +33352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>139</v>
       </c>
@@ -33469,7 +33495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>140</v>
       </c>
@@ -33612,7 +33638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>141</v>
       </c>
@@ -33772,19 +33798,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -33792,7 +33818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>129</v>
       </c>
@@ -33800,7 +33826,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -33823,18 +33849,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -33842,7 +33868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -33850,7 +33876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -33858,7 +33884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -33866,7 +33892,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -33874,7 +33900,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -33882,7 +33908,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -33890,7 +33916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -33898,7 +33924,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -33906,7 +33932,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -33914,7 +33940,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -33922,7 +33948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -33930,7 +33956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -33938,7 +33964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -33946,7 +33972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -33954,7 +33980,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>119</v>
       </c>
@@ -33962,7 +33988,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -33970,7 +33996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>121</v>
       </c>
@@ -33978,7 +34004,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>129</v>
       </c>
@@ -33986,7 +34012,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>130</v>
       </c>
@@ -34010,17 +34036,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>277</v>
       </c>
@@ -34040,7 +34066,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
@@ -34060,7 +34086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
@@ -34080,7 +34106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
@@ -34100,7 +34126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>92</v>
       </c>
@@ -34120,7 +34146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>93</v>
       </c>
@@ -34140,7 +34166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
@@ -34160,7 +34186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -34180,7 +34206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>96</v>
       </c>
@@ -34200,7 +34226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>97</v>
       </c>
@@ -34220,7 +34246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
@@ -34240,7 +34266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>99</v>
       </c>
@@ -34260,7 +34286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>100</v>
       </c>
@@ -34280,7 +34306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>101</v>
       </c>
@@ -34300,7 +34326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>102</v>
       </c>
@@ -34320,7 +34346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>119</v>
       </c>
@@ -34340,7 +34366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>120</v>
       </c>
@@ -34360,7 +34386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>121</v>
       </c>
@@ -34380,7 +34406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -34398,19 +34424,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -34427,7 +34453,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -34444,7 +34470,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>124</v>
       </c>
@@ -34461,7 +34487,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>125</v>
       </c>
@@ -34478,7 +34504,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>126</v>
       </c>
@@ -34495,7 +34521,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>127</v>
       </c>
@@ -34512,39 +34538,39 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
@@ -34564,19 +34590,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments  [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>282</v>
       </c>
@@ -34584,7 +34610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>194</v>
       </c>
@@ -34592,7 +34618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>195</v>
       </c>
@@ -34600,7 +34626,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>196</v>
       </c>
@@ -34608,7 +34634,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>197</v>
       </c>
@@ -34631,19 +34657,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -34660,7 +34686,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -34677,7 +34703,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>133</v>
       </c>
@@ -34694,7 +34720,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>134</v>
       </c>
@@ -34711,39 +34737,39 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
@@ -34764,30 +34790,30 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
@@ -34810,7 +34836,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -34833,7 +34859,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -34854,7 +34880,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -34874,7 +34900,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -34894,7 +34920,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -34914,7 +34940,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -34950,19 +34976,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>283</v>
       </c>
@@ -34970,7 +34996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>184</v>
       </c>
@@ -34978,7 +35004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>185</v>
       </c>
@@ -34986,7 +35012,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>186</v>
       </c>
@@ -34994,7 +35020,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>187</v>
       </c>
@@ -35016,23 +35042,23 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F26"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -35052,7 +35078,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -35072,7 +35098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -35092,7 +35118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -35112,7 +35138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -35132,7 +35158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -35152,7 +35178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -35172,7 +35198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>136</v>
       </c>
@@ -35192,7 +35218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>137</v>
       </c>
@@ -35212,7 +35238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>138</v>
       </c>
@@ -35232,7 +35258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>139</v>
       </c>
@@ -35252,7 +35278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>140</v>
       </c>
@@ -35272,7 +35298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>141</v>
       </c>
@@ -35292,7 +35318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>136</v>
       </c>
@@ -35312,7 +35338,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>137</v>
       </c>
@@ -35332,7 +35358,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>138</v>
       </c>
@@ -35352,7 +35378,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>139</v>
       </c>
@@ -35372,7 +35398,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>140</v>
       </c>
@@ -35392,7 +35418,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>141</v>
       </c>
@@ -35412,7 +35438,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>136</v>
       </c>
@@ -35432,7 +35458,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>137</v>
       </c>
@@ -35452,7 +35478,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>138</v>
       </c>
@@ -35472,7 +35498,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>139</v>
       </c>
@@ -35492,7 +35518,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>140</v>
       </c>
@@ -35512,7 +35538,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>141</v>
       </c>
@@ -35546,24 +35572,24 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments  [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>284</v>
       </c>
@@ -35580,7 +35606,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>142</v>
       </c>
@@ -35597,7 +35623,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>143</v>
       </c>
@@ -35614,7 +35640,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>144</v>
       </c>
@@ -35631,7 +35657,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>145</v>
       </c>
@@ -35648,10 +35674,10 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="128"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="128"/>
     </row>
   </sheetData>
@@ -35669,19 +35695,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -35689,7 +35715,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>288</v>
       </c>
@@ -35715,9 +35741,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -35726,7 +35752,7 @@
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -35869,7 +35895,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -36000,7 +36026,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -36131,7 +36157,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -36262,7 +36288,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -36393,7 +36419,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -36524,7 +36550,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -36655,7 +36681,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -36786,7 +36812,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -36917,7 +36943,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -37048,7 +37074,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -37179,7 +37205,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -37310,7 +37336,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -37441,7 +37467,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -37572,7 +37598,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -37703,7 +37729,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>119</v>
       </c>
@@ -37829,7 +37855,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -37954,7 +37980,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>121</v>
       </c>
@@ -38079,7 +38105,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>148</v>
       </c>
@@ -38202,7 +38228,7 @@
       <c r="AT20" s="45"/>
       <c r="AU20" s="32"/>
     </row>
-    <row r="21" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>149</v>
       </c>
@@ -38325,7 +38351,7 @@
       <c r="AT21" s="45"/>
       <c r="AU21" s="32"/>
     </row>
-    <row r="22" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>150</v>
       </c>
@@ -38448,7 +38474,7 @@
       <c r="AT22" s="45"/>
       <c r="AU22" s="32"/>
     </row>
-    <row r="23" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>151</v>
       </c>
@@ -38571,7 +38597,7 @@
       <c r="AT23" s="45"/>
       <c r="AU23" s="32"/>
     </row>
-    <row r="24" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>152</v>
       </c>
@@ -38694,7 +38720,7 @@
       <c r="AT24" s="45"/>
       <c r="AU24" s="32"/>
     </row>
-    <row r="25" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>153</v>
       </c>
@@ -38817,7 +38843,7 @@
       <c r="AT25" s="45"/>
       <c r="AU25" s="32"/>
     </row>
-    <row r="26" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>154</v>
       </c>
@@ -38940,7 +38966,7 @@
       <c r="AT26" s="45"/>
       <c r="AU26" s="32"/>
     </row>
-    <row r="27" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>155</v>
       </c>
@@ -39061,7 +39087,7 @@
       <c r="AT27" s="45"/>
       <c r="AU27" s="32"/>
     </row>
-    <row r="28" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>156</v>
       </c>
@@ -39184,7 +39210,7 @@
       <c r="AT28" s="45"/>
       <c r="AU28" s="32"/>
     </row>
-    <row r="29" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>157</v>
       </c>
@@ -39307,7 +39333,7 @@
       <c r="AT29" s="45"/>
       <c r="AU29" s="32"/>
     </row>
-    <row r="30" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>158</v>
       </c>
@@ -39430,7 +39456,7 @@
       <c r="AT30" s="45"/>
       <c r="AU30" s="32"/>
     </row>
-    <row r="31" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>159</v>
       </c>
@@ -39553,7 +39579,7 @@
       <c r="AT31" s="45"/>
       <c r="AU31" s="32"/>
     </row>
-    <row r="32" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>160</v>
       </c>
@@ -39676,7 +39702,7 @@
       <c r="AT32" s="45"/>
       <c r="AU32" s="32"/>
     </row>
-    <row r="33" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>161</v>
       </c>
@@ -39799,7 +39825,7 @@
       <c r="AT33" s="45"/>
       <c r="AU33" s="32"/>
     </row>
-    <row r="34" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -39922,7 +39948,7 @@
       <c r="AT34" s="45"/>
       <c r="AU34" s="32"/>
     </row>
-    <row r="35" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>163</v>
       </c>
@@ -40045,7 +40071,7 @@
       <c r="AT35" s="45"/>
       <c r="AU35" s="32"/>
     </row>
-    <row r="36" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>164</v>
       </c>
@@ -40168,7 +40194,7 @@
       <c r="AT36" s="45"/>
       <c r="AU36" s="32"/>
     </row>
-    <row r="37" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>165</v>
       </c>
@@ -40291,7 +40317,7 @@
       <c r="AT37" s="45"/>
       <c r="AU37" s="32"/>
     </row>
-    <row r="38" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>166</v>
       </c>
@@ -40414,7 +40440,7 @@
       <c r="AT38" s="45"/>
       <c r="AU38" s="32"/>
     </row>
-    <row r="39" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>167</v>
       </c>
@@ -40537,7 +40563,7 @@
       <c r="AT39" s="45"/>
       <c r="AU39" s="32"/>
     </row>
-    <row r="40" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>168</v>
       </c>
@@ -40660,7 +40686,7 @@
       <c r="AT40" s="45"/>
       <c r="AU40" s="32"/>
     </row>
-    <row r="41" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>169</v>
       </c>
@@ -40783,7 +40809,7 @@
       <c r="AT41" s="45"/>
       <c r="AU41" s="32"/>
     </row>
-    <row r="42" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>170</v>
       </c>
@@ -40908,7 +40934,7 @@
       <c r="AT42" s="45"/>
       <c r="AU42" s="32"/>
     </row>
-    <row r="43" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>171</v>
       </c>
@@ -41031,7 +41057,7 @@
       <c r="AT43" s="45"/>
       <c r="AU43" s="32"/>
     </row>
-    <row r="44" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>172</v>
       </c>
@@ -41154,7 +41180,7 @@
       <c r="AT44" s="45"/>
       <c r="AU44" s="32"/>
     </row>
-    <row r="45" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>173</v>
       </c>
@@ -41275,7 +41301,7 @@
       <c r="AT45" s="45"/>
       <c r="AU45" s="32"/>
     </row>
-    <row r="46" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>174</v>
       </c>
@@ -41398,7 +41424,7 @@
       <c r="AT46" s="45"/>
       <c r="AU46" s="32"/>
     </row>
-    <row r="47" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>175</v>
       </c>
@@ -41517,7 +41543,7 @@
       <c r="AT47" s="45"/>
       <c r="AU47" s="32"/>
     </row>
-    <row r="48" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>176</v>
       </c>
@@ -41640,7 +41666,7 @@
       <c r="AT48" s="11"/>
       <c r="AU48" s="12"/>
     </row>
-    <row r="49" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>132</v>
       </c>
@@ -41693,7 +41719,7 @@
       <c r="AT49" s="45"/>
       <c r="AU49" s="32"/>
     </row>
-    <row r="50" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>133</v>
       </c>
@@ -41746,7 +41772,7 @@
       </c>
       <c r="AU50" s="32"/>
     </row>
-    <row r="51" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>134</v>
       </c>
@@ -41851,7 +41877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>129</v>
       </c>
@@ -41982,7 +42008,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="53" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>130</v>
       </c>
@@ -42113,7 +42139,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="54" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>136</v>
       </c>
@@ -42236,7 +42262,7 @@
       <c r="AT54" s="10"/>
       <c r="AU54" s="32"/>
     </row>
-    <row r="55" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>137</v>
       </c>
@@ -42357,7 +42383,7 @@
       <c r="AT55" s="45"/>
       <c r="AU55" s="32"/>
     </row>
-    <row r="56" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>138</v>
       </c>
@@ -42410,7 +42436,7 @@
       <c r="AT56" s="45"/>
       <c r="AU56" s="32"/>
     </row>
-    <row r="57" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>139</v>
       </c>
@@ -42465,7 +42491,7 @@
       <c r="AT57" s="45"/>
       <c r="AU57" s="32"/>
     </row>
-    <row r="58" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>140</v>
       </c>
@@ -42520,7 +42546,7 @@
       <c r="AT58" s="45"/>
       <c r="AU58" s="32"/>
     </row>
-    <row r="59" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>141</v>
       </c>
@@ -42588,9 +42614,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
@@ -42599,7 +42625,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>277</v>
       </c>
@@ -42622,7 +42648,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>157</v>
       </c>
@@ -42645,7 +42671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>159</v>
       </c>
@@ -42668,7 +42694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>156</v>
       </c>
@@ -42691,7 +42717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>158</v>
       </c>
@@ -42729,19 +42755,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>281</v>
       </c>
@@ -42749,7 +42775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>178</v>
       </c>
@@ -42757,7 +42783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>179</v>
       </c>
@@ -42765,7 +42791,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>180</v>
       </c>
@@ -42773,7 +42799,7 @@
         <v>35714.285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>181</v>
       </c>
@@ -42781,7 +42807,7 @@
         <v>42857.142857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>182</v>
       </c>
@@ -42804,19 +42830,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>281</v>
       </c>
@@ -42824,7 +42850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>178</v>
       </c>
@@ -42832,7 +42858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>179</v>
       </c>
@@ -42840,7 +42866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>180</v>
       </c>
@@ -42848,7 +42874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>181</v>
       </c>
@@ -42856,7 +42882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>182</v>
       </c>
@@ -42878,21 +42904,21 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C26"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -42903,7 +42929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -42914,7 +42940,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -42925,7 +42951,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -42936,7 +42962,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -42947,7 +42973,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -42958,7 +42984,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -42969,7 +42995,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>136</v>
       </c>
@@ -42980,7 +43006,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>137</v>
       </c>
@@ -42991,7 +43017,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>138</v>
       </c>
@@ -43002,7 +43028,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>139</v>
       </c>
@@ -43013,7 +43039,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>140</v>
       </c>
@@ -43024,7 +43050,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>141</v>
       </c>
@@ -43035,7 +43061,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>136</v>
       </c>
@@ -43046,7 +43072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>137</v>
       </c>
@@ -43057,7 +43083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>138</v>
       </c>
@@ -43068,7 +43094,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>139</v>
       </c>
@@ -43079,7 +43105,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>140</v>
       </c>
@@ -43090,7 +43116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>141</v>
       </c>
@@ -43101,7 +43127,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>136</v>
       </c>
@@ -43112,7 +43138,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>137</v>
       </c>
@@ -43123,7 +43149,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>138</v>
       </c>
@@ -43134,7 +43160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>139</v>
       </c>
@@ -43145,7 +43171,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>140</v>
       </c>
@@ -43156,7 +43182,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>141</v>
       </c>
@@ -43181,14 +43207,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>280</v>
       </c>
@@ -43196,7 +43222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="127" t="s">
         <v>142</v>
       </c>
@@ -43204,7 +43230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="127" t="s">
         <v>143</v>
       </c>
@@ -43212,7 +43238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="127" t="s">
         <v>144</v>
       </c>
@@ -43220,7 +43246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>145</v>
       </c>
@@ -43244,23 +43270,23 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>123</v>
       </c>
@@ -43281,7 +43307,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>124</v>
       </c>
@@ -43302,7 +43328,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>125</v>
       </c>
@@ -43323,7 +43349,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>126</v>
       </c>
@@ -43344,7 +43370,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>127</v>
       </c>
@@ -43373,6 +43399,88 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="53">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -43383,14 +43491,14 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>201</v>
       </c>
@@ -43398,7 +43506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -43406,7 +43514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -43414,7 +43522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
         <v>121</v>
       </c>
@@ -43427,7 +43535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -43436,17 +43544,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -43454,7 +43562,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>291</v>
       </c>
@@ -43462,7 +43570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>292</v>
       </c>
@@ -43475,7 +43583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -43484,17 +43592,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -43502,7 +43610,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>294</v>
       </c>
@@ -43510,7 +43618,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>295</v>
       </c>
@@ -43523,7 +43631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -43532,24 +43640,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>296</v>
       </c>
@@ -43557,7 +43665,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>89</v>
       </c>
@@ -43565,7 +43673,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -43573,7 +43681,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -43581,7 +43689,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -43589,7 +43697,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -43597,7 +43705,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -43605,7 +43713,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -43613,7 +43721,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -43621,7 +43729,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -43629,7 +43737,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -43637,7 +43745,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -43645,7 +43753,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -43653,7 +43761,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -43661,7 +43769,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -43669,7 +43777,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>119</v>
       </c>
@@ -43677,7 +43785,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>120</v>
       </c>
@@ -43691,7 +43799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -43700,18 +43808,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>296</v>
       </c>
@@ -43719,7 +43827,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>132</v>
       </c>
@@ -43727,7 +43835,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>133</v>
       </c>
@@ -43735,7 +43843,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>134</v>
       </c>
@@ -43749,7 +43857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -43758,19 +43866,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -43778,7 +43886,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -43786,7 +43894,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>120</v>
       </c>
@@ -43810,30 +43918,30 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -43856,7 +43964,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -43877,7 +43985,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -43898,7 +44006,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -43919,7 +44027,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -43940,7 +44048,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -43961,7 +44069,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -44000,30 +44108,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
@@ -44046,7 +44154,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
@@ -44069,7 +44177,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -44089,7 +44197,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -44109,7 +44217,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -44129,7 +44237,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -44149,7 +44257,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_Treatment_Demo.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_Treatment_Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teera\work\repos\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E42D8-BDA7-45C1-ACCE-3BFBB1FDDD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA46EC1-D6E4-46FB-AD1C-3618D3AC0E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="64" activeTab="69" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="48" activeTab="48" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2707,15 +2707,15 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2727,7 +2727,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>0</v>
@@ -2741,7 +2741,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2753,7 +2753,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>1</v>
@@ -2767,7 +2767,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>2</v>
@@ -2781,7 +2781,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>3</v>
@@ -2795,7 +2795,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>4</v>
@@ -2809,7 +2809,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>5</v>
@@ -2823,7 +2823,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>6</v>
@@ -2837,7 +2837,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2849,7 +2849,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
@@ -2863,7 +2863,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>8</v>
@@ -2877,7 +2877,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2889,7 +2889,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>9</v>
@@ -2903,7 +2903,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>10</v>
@@ -2917,7 +2917,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>11</v>
@@ -2931,7 +2931,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>12</v>
@@ -2945,7 +2945,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2957,7 +2957,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2969,7 +2969,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>13</v>
@@ -2985,7 +2985,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2997,7 +2997,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>15</v>
@@ -3013,7 +3013,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>17</v>
@@ -3029,7 +3029,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>19</v>
@@ -3045,7 +3045,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>21</v>
@@ -3061,7 +3061,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>23</v>
@@ -3077,7 +3077,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>25</v>
@@ -3093,7 +3093,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>27</v>
@@ -3109,7 +3109,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>29</v>
@@ -3125,7 +3125,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>31</v>
@@ -3144,7 +3144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>34</v>
@@ -3160,7 +3160,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>36</v>
@@ -3176,7 +3176,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>38</v>
@@ -3192,7 +3192,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>40</v>
@@ -3208,7 +3208,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>42</v>
@@ -3224,7 +3224,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3269,30 +3269,30 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>137</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>139</v>
       </c>
@@ -3361,7 +3361,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>140</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>141</v>
       </c>
@@ -3407,7 +3407,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3427,7 +3427,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3465,30 +3465,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
@@ -3496,12 +3496,12 @@
       <c r="O3" s="98"/>
       <c r="P3" s="98"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>145</v>
       </c>
@@ -3521,28 +3521,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3563,7 +3563,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3583,7 +3583,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3603,7 +3603,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3623,7 +3623,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3643,7 +3643,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3663,7 +3663,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3700,30 +3700,30 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>149</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>150</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>151</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>152</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>153</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>154</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>155</v>
       </c>
@@ -3884,107 +3884,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="99" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>176</v>
       </c>
@@ -4007,30 +4007,30 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>179</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>180</v>
       </c>
@@ -4076,7 +4076,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>181</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>182</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4159,30 +4159,30 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>185</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>186</v>
       </c>
@@ -4228,7 +4228,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>187</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4272,7 +4272,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4293,7 +4293,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4330,30 +4330,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>190</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>191</v>
       </c>
@@ -4399,7 +4399,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>192</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4443,7 +4443,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4464,7 +4464,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4501,30 +4501,30 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>195</v>
       </c>
@@ -4547,7 +4547,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>196</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>197</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4614,7 +4614,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4635,7 +4635,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4672,18 +4672,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -4811,7 +4811,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -4919,7 +4919,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -4993,7 +4993,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -5065,7 +5065,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -5173,7 +5173,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>102</v>
       </c>
@@ -5299,18 +5299,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -5526,61 +5526,61 @@
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -5600,18 +5600,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -5633,7 +5633,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -5641,7 +5641,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -5666,18 +5666,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100" t="s">
         <v>148</v>
       </c>
@@ -5805,7 +5805,7 @@
       <c r="AC3" s="101"/>
       <c r="AD3" s="102"/>
     </row>
-    <row r="4" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="100" t="s">
         <v>149</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="AC4" s="101"/>
       <c r="AD4" s="102"/>
     </row>
-    <row r="5" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="100" t="s">
         <v>150</v>
       </c>
@@ -5883,7 +5883,7 @@
       <c r="AC5" s="101"/>
       <c r="AD5" s="102"/>
     </row>
-    <row r="6" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="100" t="s">
         <v>151</v>
       </c>
@@ -5921,7 +5921,7 @@
       <c r="AC6" s="101"/>
       <c r="AD6" s="102"/>
     </row>
-    <row r="7" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
         <v>152</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="AC7" s="101"/>
       <c r="AD7" s="102"/>
     </row>
-    <row r="8" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="100" t="s">
         <v>153</v>
       </c>
@@ -5997,7 +5997,7 @@
       <c r="AC8" s="101"/>
       <c r="AD8" s="102"/>
     </row>
-    <row r="9" spans="1:30" s="104" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="104" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="100" t="s">
         <v>154</v>
       </c>
@@ -6037,7 +6037,7 @@
       <c r="AC9" s="101"/>
       <c r="AD9" s="102"/>
     </row>
-    <row r="10" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="100" t="s">
         <v>155</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="AC10" s="101"/>
       <c r="AD10" s="102"/>
     </row>
-    <row r="11" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="100" t="s">
         <v>156</v>
       </c>
@@ -6115,7 +6115,7 @@
       <c r="AC11" s="101"/>
       <c r="AD11" s="102"/>
     </row>
-    <row r="12" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="106" t="s">
         <v>157</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="AC12" s="105"/>
       <c r="AD12" s="107"/>
     </row>
-    <row r="13" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="100" t="s">
         <v>158</v>
       </c>
@@ -6189,7 +6189,7 @@
       <c r="AC13" s="101"/>
       <c r="AD13" s="102"/>
     </row>
-    <row r="14" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="106" t="s">
         <v>159</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="AC14" s="105"/>
       <c r="AD14" s="107"/>
     </row>
-    <row r="15" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="100" t="s">
         <v>160</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="AC15" s="101"/>
       <c r="AD15" s="102"/>
     </row>
-    <row r="16" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="100" t="s">
         <v>161</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="100" t="s">
         <v>162</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="100" t="s">
         <v>163</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="AC18" s="101"/>
       <c r="AD18" s="102"/>
     </row>
-    <row r="19" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="100" t="s">
         <v>164</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="AC19" s="101"/>
       <c r="AD19" s="102"/>
     </row>
-    <row r="20" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="100" t="s">
         <v>165</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="AC20" s="101"/>
       <c r="AD20" s="102"/>
     </row>
-    <row r="21" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="100" t="s">
         <v>166</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="AC21" s="101"/>
       <c r="AD21" s="102"/>
     </row>
-    <row r="22" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="100" t="s">
         <v>167</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="100" t="s">
         <v>168</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="AC23" s="101"/>
       <c r="AD23" s="102"/>
     </row>
-    <row r="24" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="100" t="s">
         <v>169</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="AC24" s="101"/>
       <c r="AD24" s="102"/>
     </row>
-    <row r="25" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="100" t="s">
         <v>170</v>
       </c>
@@ -6643,7 +6643,7 @@
       <c r="AC25" s="101"/>
       <c r="AD25" s="102"/>
     </row>
-    <row r="26" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="100" t="s">
         <v>171</v>
       </c>
@@ -6681,7 +6681,7 @@
       <c r="AC26" s="101"/>
       <c r="AD26" s="102"/>
     </row>
-    <row r="27" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="100" t="s">
         <v>172</v>
       </c>
@@ -6719,7 +6719,7 @@
       <c r="AC27" s="101"/>
       <c r="AD27" s="102"/>
     </row>
-    <row r="28" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="106" t="s">
         <v>173</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="AC28" s="105"/>
       <c r="AD28" s="107"/>
     </row>
-    <row r="29" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="100" t="s">
         <v>174</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="AC29" s="101"/>
       <c r="AD29" s="102"/>
     </row>
-    <row r="30" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="108" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="106" t="s">
         <v>175</v>
       </c>
@@ -6827,7 +6827,7 @@
       <c r="AC30" s="105"/>
       <c r="AD30" s="107"/>
     </row>
-    <row r="31" spans="1:30" s="104" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" s="104" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="109" t="s">
         <v>176</v>
       </c>
@@ -6885,18 +6885,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>148</v>
       </c>
@@ -6918,7 +6918,7 @@
       <c r="C3" s="45"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>149</v>
       </c>
@@ -6926,7 +6926,7 @@
       <c r="C4" s="45"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>150</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="C5" s="45"/>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>151</v>
       </c>
@@ -6942,7 +6942,7 @@
       <c r="C6" s="45"/>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>152</v>
       </c>
@@ -6950,7 +6950,7 @@
       <c r="C7" s="45"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>153</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>154</v>
       </c>
@@ -6966,7 +6966,7 @@
       <c r="C9" s="45"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>155</v>
       </c>
@@ -6974,7 +6974,7 @@
       <c r="C10" s="45"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>156</v>
       </c>
@@ -6982,7 +6982,7 @@
       <c r="C11" s="45"/>
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>157</v>
       </c>
@@ -6990,7 +6990,7 @@
       <c r="C12" s="45"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>158</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="C13" s="45"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>159</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="C14" s="45"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>160</v>
       </c>
@@ -7014,7 +7014,7 @@
       <c r="C15" s="45"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>161</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="C16" s="45"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>162</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="C17" s="45"/>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>163</v>
       </c>
@@ -7038,7 +7038,7 @@
       <c r="C18" s="45"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>164</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="C19" s="45"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>165</v>
       </c>
@@ -7054,7 +7054,7 @@
       <c r="C20" s="45"/>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>166</v>
       </c>
@@ -7062,7 +7062,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>167</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="C22" s="45"/>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>168</v>
       </c>
@@ -7078,7 +7078,7 @@
       <c r="C23" s="45"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>169</v>
       </c>
@@ -7086,7 +7086,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>170</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="C25" s="45"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>171</v>
       </c>
@@ -7102,7 +7102,7 @@
       <c r="C26" s="45"/>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>172</v>
       </c>
@@ -7110,7 +7110,7 @@
       <c r="C27" s="45"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>173</v>
       </c>
@@ -7118,7 +7118,7 @@
       <c r="C28" s="45"/>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>174</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="C29" s="45"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="C30" s="45"/>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>176</v>
       </c>
@@ -7159,20 +7159,20 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.28515625" style="104"/>
-    <col min="6" max="6" width="9.28515625" style="108"/>
-    <col min="7" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.33203125" style="104"/>
+    <col min="6" max="6" width="9.33203125" style="108"/>
+    <col min="7" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>148</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="E3" s="101"/>
       <c r="F3" s="107"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>149</v>
       </c>
@@ -7214,7 +7214,7 @@
       <c r="E4" s="101"/>
       <c r="F4" s="107"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>150</v>
       </c>
@@ -7224,7 +7224,7 @@
       <c r="E5" s="101"/>
       <c r="F5" s="107"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>151</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="E6" s="101"/>
       <c r="F6" s="107"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>152</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="E7" s="101"/>
       <c r="F7" s="107"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>153</v>
       </c>
@@ -7256,7 +7256,7 @@
       <c r="E8" s="101"/>
       <c r="F8" s="107"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>154</v>
       </c>
@@ -7266,7 +7266,7 @@
       <c r="E9" s="101"/>
       <c r="F9" s="107"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>155</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="E10" s="101"/>
       <c r="F10" s="107"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>156</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="E11" s="101"/>
       <c r="F11" s="107"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>157</v>
       </c>
@@ -7296,7 +7296,7 @@
       <c r="E12" s="101"/>
       <c r="F12" s="107"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>158</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="E13" s="101"/>
       <c r="F13" s="107"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>159</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="E14" s="101"/>
       <c r="F14" s="107"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>160</v>
       </c>
@@ -7328,7 +7328,7 @@
       <c r="E15" s="101"/>
       <c r="F15" s="107"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>161</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="E16" s="101"/>
       <c r="F16" s="107"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>162</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="E17" s="101"/>
       <c r="F17" s="107"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>163</v>
       </c>
@@ -7358,7 +7358,7 @@
       <c r="E18" s="101"/>
       <c r="F18" s="107"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>164</v>
       </c>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="F19" s="107"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>165</v>
       </c>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="F20" s="107"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>166</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="E21" s="101"/>
       <c r="F21" s="107"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>167</v>
       </c>
@@ -7402,7 +7402,7 @@
       <c r="E22" s="101"/>
       <c r="F22" s="107"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>168</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="E23" s="101"/>
       <c r="F23" s="107"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>169</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="E24" s="101"/>
       <c r="F24" s="107"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>170</v>
       </c>
@@ -7434,7 +7434,7 @@
       <c r="E25" s="101"/>
       <c r="F25" s="107"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>171</v>
       </c>
@@ -7444,7 +7444,7 @@
       <c r="E26" s="101"/>
       <c r="F26" s="107"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>172</v>
       </c>
@@ -7454,7 +7454,7 @@
       <c r="E27" s="101"/>
       <c r="F27" s="107"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>173</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>174</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="E29" s="101"/>
       <c r="F29" s="107"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="E30" s="101"/>
       <c r="F30" s="107"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>176</v>
       </c>
@@ -7514,18 +7514,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>148</v>
       </c>
@@ -7559,7 +7559,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>149</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>150</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>151</v>
       </c>
@@ -7594,7 +7594,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>152</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>153</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>154</v>
       </c>
@@ -7627,7 +7627,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>155</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>156</v>
       </c>
@@ -7649,7 +7649,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>157</v>
       </c>
@@ -7662,7 +7662,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>158</v>
       </c>
@@ -7673,7 +7673,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>159</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>160</v>
       </c>
@@ -7697,7 +7697,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>161</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>162</v>
       </c>
@@ -7719,7 +7719,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>163</v>
       </c>
@@ -7730,7 +7730,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>164</v>
       </c>
@@ -7741,7 +7741,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>165</v>
       </c>
@@ -7752,7 +7752,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>166</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>167</v>
       </c>
@@ -7776,7 +7776,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>168</v>
       </c>
@@ -7787,7 +7787,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>169</v>
       </c>
@@ -7798,7 +7798,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>170</v>
       </c>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>171</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>172</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>173</v>
       </c>
@@ -7846,7 +7846,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>174</v>
       </c>
@@ -7857,7 +7857,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
@@ -7868,7 +7868,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>176</v>
       </c>
@@ -7897,18 +7897,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>204</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>159</v>
       </c>
@@ -7947,18 +7947,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -7966,19 +7966,19 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="32"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="32"/>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>134</v>
       </c>
@@ -8001,18 +8001,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -8063,18 +8063,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -8096,7 +8096,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -8104,7 +8104,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -8112,7 +8112,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -8128,7 +8128,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -8154,9 +8154,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
@@ -8164,7 +8164,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -8186,7 +8186,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -8196,7 +8196,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -8204,7 +8204,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -8248,33 +8248,33 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.28515625" style="1"/>
-    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="J2" s="87"/>
       <c r="K2" s="89"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>49</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>56</v>
       </c>
@@ -8348,7 +8348,7 @@
       <c r="J4" s="77"/>
       <c r="K4" s="79"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>61</v>
       </c>
@@ -8366,7 +8366,7 @@
       <c r="J5" s="78"/>
       <c r="K5" s="80"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>64</v>
       </c>
@@ -8390,7 +8390,7 @@
       <c r="J6" s="78"/>
       <c r="K6" s="80"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>68</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="J7" s="78"/>
       <c r="K7" s="80"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>73</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>77</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -8583,14 +8583,14 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>132</v>
       </c>
@@ -8614,7 +8614,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>133</v>
       </c>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>134</v>
       </c>
@@ -8650,18 +8650,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -8697,7 +8697,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -8710,7 +8710,7 @@
       <c r="F4" s="45"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -8723,7 +8723,7 @@
       <c r="F5" s="45"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -8736,7 +8736,7 @@
       <c r="F6" s="45"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -8779,18 +8779,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -8812,7 +8812,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -8820,7 +8820,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -8828,7 +8828,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -8860,7 +8860,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -8868,7 +8868,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -8892,7 +8892,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -8900,7 +8900,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -8908,7 +8908,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>102</v>
       </c>
@@ -8934,18 +8934,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -8995,18 +8995,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>102</v>
       </c>
@@ -9323,18 +9323,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>120</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -9431,18 +9431,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -9464,7 +9464,7 @@
       <c r="C3" s="33"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -9472,7 +9472,7 @@
       <c r="C4" s="33"/>
       <c r="D4" s="35"/>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -9497,18 +9497,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>119</v>
       </c>
@@ -9539,24 +9539,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.28515625" style="1"/>
-    <col min="54" max="54" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.33203125" style="1"/>
+    <col min="54" max="54" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>201</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
         <v>119</v>
       </c>
@@ -9880,7 +9880,7 @@
       <c r="BB3" s="129"/>
       <c r="BC3" s="129"/>
     </row>
-    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
         <v>120</v>
       </c>
@@ -10044,7 +10044,7 @@
       <c r="BC4" s="129"/>
       <c r="BD4" s="97"/>
     </row>
-    <row r="5" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53" t="s">
         <v>121</v>
       </c>
@@ -10192,48 +10192,48 @@
       <c r="BC5" s="128"/>
       <c r="BD5" s="96"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B9" s="62"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -10254,22 +10254,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>1441.8869978578632</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>3575.8350056831673</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>3056.3212211693481</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>2802.9780084908152</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>2722.3915096839892</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>1494.1627838751133</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>1603.7712112255813</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>1421.1498787463106</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>102</v>
       </c>
@@ -13411,17 +13411,17 @@
         <v>1914.5624796833633</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="61"/>
       <c r="C17" s="62"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="62"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="62"/>
     </row>
   </sheetData>
@@ -13442,24 +13442,24 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
@@ -13480,7 +13480,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -13501,62 +13501,62 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>102</v>
       </c>
@@ -13577,23 +13577,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>12125.732532083186</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -14093,44 +14093,44 @@
       <c r="AZ5" s="39"/>
       <c r="BA5" s="40"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="62"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -14151,12 +14151,12 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites  [bbl/day]</v>
@@ -14182,7 +14182,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>119</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>121</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>148</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>149</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>150</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>151</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>152</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>153</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>154</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>155</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>156</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>157</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>158</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>159</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>160</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>161</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>163</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>164</v>
       </c>
@@ -19187,7 +19187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>165</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>166</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>167</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>168</v>
       </c>
@@ -19759,7 +19759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>169</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>170</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>171</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>172</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>173</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>174</v>
       </c>
@@ -20617,7 +20617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>175</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="30" t="s">
         <v>176</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>132</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>133</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
         <v>134</v>
       </c>
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>129</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="53" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="30" t="s">
         <v>130</v>
       </c>
@@ -21618,7 +21618,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>136</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>137</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>138</v>
       </c>
@@ -22047,7 +22047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>139</v>
       </c>
@@ -22190,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>140</v>
       </c>
@@ -22333,7 +22333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
         <v>141</v>
       </c>
@@ -22492,19 +22492,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity  [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -22512,7 +22512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>124</v>
       </c>
@@ -22528,7 +22528,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>125</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>126</v>
       </c>
@@ -22545,7 +22545,7 @@
       </c>
       <c r="C6" s="61"/>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>127</v>
       </c>
@@ -22568,19 +22568,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -22588,7 +22588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>133</v>
       </c>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>134</v>
       </c>
@@ -22629,19 +22629,19 @@
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -22658,7 +22658,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>141</v>
       </c>
@@ -22775,13 +22775,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
@@ -22805,7 +22805,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>129</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -23392,78 +23392,78 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -23484,20 +23484,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -23521,7 +23521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -23544,19 +23544,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity  [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -23564,7 +23564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>120</v>
       </c>
@@ -23595,20 +23595,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -23616,175 +23616,175 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B3" s="38"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B5" s="38"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B6" s="38"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B7" s="38"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="38"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>154</v>
       </c>
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>155</v>
       </c>
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B12" s="38"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>160</v>
       </c>
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B16" s="38"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>162</v>
       </c>
       <c r="B17" s="38"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>163</v>
       </c>
       <c r="B18" s="38"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B19" s="38"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B20" s="38"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>168</v>
       </c>
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>169</v>
       </c>
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>170</v>
       </c>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>171</v>
       </c>
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>173</v>
       </c>
       <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
       <c r="B30" s="38"/>
     </row>
-    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>176</v>
       </c>
@@ -23803,25 +23803,25 @@
   </sheetPr>
   <dimension ref="A1:BD18"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site  [%]")</f>
         <v>Operating Capacity of Disposal Site  [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>278</v>
       </c>
@@ -23982,7 +23982,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
         <v>123</v>
       </c>
@@ -24143,7 +24143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
         <v>124</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
         <v>125</v>
       </c>
@@ -24465,7 +24465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>126</v>
       </c>
@@ -24545,89 +24545,89 @@
         <v>1</v>
       </c>
       <c r="AA6" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BA6" s="10">
+        <v>1</v>
       </c>
       <c r="BD6" s="97"/>
     </row>
-    <row r="7" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53" t="s">
         <v>127</v>
       </c>
@@ -24790,50 +24790,50 @@
       <c r="BB7" s="9"/>
       <c r="BD7" s="96"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B11" s="62"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
         <v>298</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -24852,24 +24852,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
@@ -24890,7 +24890,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
@@ -24911,7 +24911,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
@@ -24932,7 +24932,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
@@ -24953,7 +24953,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
@@ -24974,47 +24974,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>117</v>
       </c>
@@ -25035,19 +25035,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -25055,7 +25055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -25063,7 +25063,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>124</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>125</v>
       </c>
@@ -25079,7 +25079,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>126</v>
       </c>
@@ -25087,7 +25087,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>127</v>
       </c>
@@ -25111,20 +25111,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -25135,7 +25135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -25147,7 +25147,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -25158,7 +25158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -25180,7 +25180,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -25191,7 +25191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -25202,7 +25202,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>136</v>
       </c>
@@ -25213,7 +25213,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>137</v>
       </c>
@@ -25224,7 +25224,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>138</v>
       </c>
@@ -25235,7 +25235,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>139</v>
       </c>
@@ -25246,7 +25246,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>140</v>
       </c>
@@ -25257,7 +25257,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>141</v>
       </c>
@@ -25268,7 +25268,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>136</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>137</v>
       </c>
@@ -25290,7 +25290,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>138</v>
       </c>
@@ -25301,7 +25301,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>139</v>
       </c>
@@ -25312,7 +25312,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>140</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>141</v>
       </c>
@@ -25334,7 +25334,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>136</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>137</v>
       </c>
@@ -25356,7 +25356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>138</v>
       </c>
@@ -25367,7 +25367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>139</v>
       </c>
@@ -25378,7 +25378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>140</v>
       </c>
@@ -25389,7 +25389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>141</v>
       </c>
@@ -25415,19 +25415,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -25451,7 +25451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>121</v>
       </c>
@@ -25474,20 +25474,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -25630,7 +25630,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -26059,7 +26059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -26202,7 +26202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -26345,7 +26345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -26488,7 +26488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -26631,7 +26631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -26774,7 +26774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -27060,7 +27060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -27489,7 +27489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -27632,7 +27632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>119</v>
       </c>
@@ -27775,7 +27775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>121</v>
       </c>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>148</v>
       </c>
@@ -28204,7 +28204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>149</v>
       </c>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>150</v>
       </c>
@@ -28490,7 +28490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>151</v>
       </c>
@@ -28633,7 +28633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>152</v>
       </c>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>153</v>
       </c>
@@ -28919,7 +28919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>154</v>
       </c>
@@ -29062,7 +29062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>155</v>
       </c>
@@ -29205,7 +29205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>156</v>
       </c>
@@ -29348,7 +29348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>157</v>
       </c>
@@ -29491,7 +29491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>158</v>
       </c>
@@ -29634,7 +29634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>159</v>
       </c>
@@ -29777,7 +29777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>160</v>
       </c>
@@ -29920,7 +29920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>161</v>
       </c>
@@ -30063,7 +30063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>163</v>
       </c>
@@ -30349,7 +30349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>164</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>165</v>
       </c>
@@ -30635,7 +30635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>166</v>
       </c>
@@ -30778,7 +30778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>167</v>
       </c>
@@ -30921,7 +30921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>168</v>
       </c>
@@ -31064,7 +31064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>169</v>
       </c>
@@ -31207,7 +31207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>170</v>
       </c>
@@ -31350,7 +31350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>171</v>
       </c>
@@ -31493,7 +31493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>172</v>
       </c>
@@ -31636,7 +31636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>173</v>
       </c>
@@ -31779,7 +31779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>174</v>
       </c>
@@ -31922,7 +31922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>175</v>
       </c>
@@ -32065,7 +32065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>176</v>
       </c>
@@ -32208,7 +32208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>132</v>
       </c>
@@ -32351,7 +32351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>133</v>
       </c>
@@ -32494,7 +32494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>134</v>
       </c>
@@ -32637,7 +32637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>129</v>
       </c>
@@ -32780,7 +32780,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>130</v>
       </c>
@@ -32923,7 +32923,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>136</v>
       </c>
@@ -33066,7 +33066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>137</v>
       </c>
@@ -33209,7 +33209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>138</v>
       </c>
@@ -33352,7 +33352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>139</v>
       </c>
@@ -33495,7 +33495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>140</v>
       </c>
@@ -33638,7 +33638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>141</v>
       </c>
@@ -33798,19 +33798,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>211</v>
       </c>
@@ -33818,7 +33818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>129</v>
       </c>
@@ -33826,7 +33826,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
@@ -33849,18 +33849,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -33868,7 +33868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -33876,7 +33876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -33884,7 +33884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -33892,7 +33892,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -33900,7 +33900,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -33908,7 +33908,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -33916,7 +33916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -33924,7 +33924,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -33932,7 +33932,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -33940,7 +33940,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -33948,7 +33948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -33964,7 +33964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -33972,7 +33972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -33980,7 +33980,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>119</v>
       </c>
@@ -33988,7 +33988,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -33996,7 +33996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>121</v>
       </c>
@@ -34004,7 +34004,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>129</v>
       </c>
@@ -34012,7 +34012,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>130</v>
       </c>
@@ -34036,17 +34036,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>277</v>
       </c>
@@ -34066,7 +34066,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
@@ -34086,7 +34086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
@@ -34106,7 +34106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
@@ -34126,7 +34126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>92</v>
       </c>
@@ -34146,7 +34146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>93</v>
       </c>
@@ -34166,7 +34166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
@@ -34186,7 +34186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -34206,7 +34206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>96</v>
       </c>
@@ -34226,7 +34226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>97</v>
       </c>
@@ -34246,7 +34246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
@@ -34266,7 +34266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>99</v>
       </c>
@@ -34286,7 +34286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>100</v>
       </c>
@@ -34306,7 +34306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>101</v>
       </c>
@@ -34326,7 +34326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>102</v>
       </c>
@@ -34346,7 +34346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>119</v>
       </c>
@@ -34366,7 +34366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>120</v>
       </c>
@@ -34386,7 +34386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>121</v>
       </c>
@@ -34406,7 +34406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -34424,19 +34424,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>278</v>
       </c>
@@ -34453,7 +34453,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>123</v>
       </c>
@@ -34470,7 +34470,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>124</v>
       </c>
@@ -34487,7 +34487,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>125</v>
       </c>
@@ -34504,7 +34504,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>126</v>
       </c>
@@ -34521,7 +34521,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>127</v>
       </c>
@@ -34538,39 +34538,39 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
@@ -34590,19 +34590,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments  [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>282</v>
       </c>
@@ -34610,7 +34610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>194</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>195</v>
       </c>
@@ -34626,7 +34626,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>196</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>197</v>
       </c>
@@ -34657,19 +34657,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -34686,7 +34686,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>132</v>
       </c>
@@ -34703,7 +34703,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>133</v>
       </c>
@@ -34720,7 +34720,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>134</v>
       </c>
@@ -34737,39 +34737,39 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
@@ -34790,30 +34790,30 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
@@ -34836,7 +34836,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -34859,7 +34859,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -34880,7 +34880,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -34900,7 +34900,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -34920,7 +34920,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -34940,7 +34940,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -34976,19 +34976,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>283</v>
       </c>
@@ -34996,7 +34996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>184</v>
       </c>
@@ -35004,7 +35004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>185</v>
       </c>
@@ -35012,7 +35012,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>186</v>
       </c>
@@ -35020,7 +35020,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>187</v>
       </c>
@@ -35045,20 +35045,20 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -35098,7 +35098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -35118,7 +35118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -35138,7 +35138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -35158,7 +35158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -35178,7 +35178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -35198,7 +35198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>136</v>
       </c>
@@ -35218,7 +35218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>137</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>138</v>
       </c>
@@ -35258,7 +35258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>139</v>
       </c>
@@ -35278,7 +35278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>140</v>
       </c>
@@ -35298,7 +35298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>141</v>
       </c>
@@ -35318,7 +35318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>136</v>
       </c>
@@ -35338,7 +35338,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>137</v>
       </c>
@@ -35358,7 +35358,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>138</v>
       </c>
@@ -35378,7 +35378,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>139</v>
       </c>
@@ -35398,7 +35398,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>140</v>
       </c>
@@ -35418,7 +35418,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>141</v>
       </c>
@@ -35438,7 +35438,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>136</v>
       </c>
@@ -35458,7 +35458,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>137</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>138</v>
       </c>
@@ -35498,7 +35498,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>139</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>140</v>
       </c>
@@ -35538,7 +35538,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>141</v>
       </c>
@@ -35575,21 +35575,21 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments  [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>284</v>
       </c>
@@ -35606,7 +35606,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>142</v>
       </c>
@@ -35623,7 +35623,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>143</v>
       </c>
@@ -35640,7 +35640,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>144</v>
       </c>
@@ -35657,7 +35657,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>145</v>
       </c>
@@ -35674,10 +35674,10 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="128"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="128"/>
     </row>
   </sheetData>
@@ -35695,19 +35695,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -35715,7 +35715,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>288</v>
       </c>
@@ -35741,9 +35741,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -35752,7 +35752,7 @@
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -35895,7 +35895,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>89</v>
       </c>
@@ -36026,7 +36026,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -36157,7 +36157,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -36288,7 +36288,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -36419,7 +36419,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -36550,7 +36550,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -36681,7 +36681,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -36812,7 +36812,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -36943,7 +36943,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -37074,7 +37074,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -37205,7 +37205,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -37336,7 +37336,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -37467,7 +37467,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -37598,7 +37598,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -37729,7 +37729,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>119</v>
       </c>
@@ -37855,7 +37855,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -37980,7 +37980,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>121</v>
       </c>
@@ -38105,7 +38105,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>148</v>
       </c>
@@ -38228,7 +38228,7 @@
       <c r="AT20" s="45"/>
       <c r="AU20" s="32"/>
     </row>
-    <row r="21" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>149</v>
       </c>
@@ -38351,7 +38351,7 @@
       <c r="AT21" s="45"/>
       <c r="AU21" s="32"/>
     </row>
-    <row r="22" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>150</v>
       </c>
@@ -38474,7 +38474,7 @@
       <c r="AT22" s="45"/>
       <c r="AU22" s="32"/>
     </row>
-    <row r="23" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>151</v>
       </c>
@@ -38597,7 +38597,7 @@
       <c r="AT23" s="45"/>
       <c r="AU23" s="32"/>
     </row>
-    <row r="24" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>152</v>
       </c>
@@ -38720,7 +38720,7 @@
       <c r="AT24" s="45"/>
       <c r="AU24" s="32"/>
     </row>
-    <row r="25" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>153</v>
       </c>
@@ -38843,7 +38843,7 @@
       <c r="AT25" s="45"/>
       <c r="AU25" s="32"/>
     </row>
-    <row r="26" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>154</v>
       </c>
@@ -38966,7 +38966,7 @@
       <c r="AT26" s="45"/>
       <c r="AU26" s="32"/>
     </row>
-    <row r="27" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>155</v>
       </c>
@@ -39087,7 +39087,7 @@
       <c r="AT27" s="45"/>
       <c r="AU27" s="32"/>
     </row>
-    <row r="28" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>156</v>
       </c>
@@ -39210,7 +39210,7 @@
       <c r="AT28" s="45"/>
       <c r="AU28" s="32"/>
     </row>
-    <row r="29" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>157</v>
       </c>
@@ -39333,7 +39333,7 @@
       <c r="AT29" s="45"/>
       <c r="AU29" s="32"/>
     </row>
-    <row r="30" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>158</v>
       </c>
@@ -39456,7 +39456,7 @@
       <c r="AT30" s="45"/>
       <c r="AU30" s="32"/>
     </row>
-    <row r="31" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>159</v>
       </c>
@@ -39579,7 +39579,7 @@
       <c r="AT31" s="45"/>
       <c r="AU31" s="32"/>
     </row>
-    <row r="32" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>160</v>
       </c>
@@ -39702,7 +39702,7 @@
       <c r="AT32" s="45"/>
       <c r="AU32" s="32"/>
     </row>
-    <row r="33" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>161</v>
       </c>
@@ -39825,7 +39825,7 @@
       <c r="AT33" s="45"/>
       <c r="AU33" s="32"/>
     </row>
-    <row r="34" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -39948,7 +39948,7 @@
       <c r="AT34" s="45"/>
       <c r="AU34" s="32"/>
     </row>
-    <row r="35" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>163</v>
       </c>
@@ -40071,7 +40071,7 @@
       <c r="AT35" s="45"/>
       <c r="AU35" s="32"/>
     </row>
-    <row r="36" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>164</v>
       </c>
@@ -40194,7 +40194,7 @@
       <c r="AT36" s="45"/>
       <c r="AU36" s="32"/>
     </row>
-    <row r="37" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>165</v>
       </c>
@@ -40317,7 +40317,7 @@
       <c r="AT37" s="45"/>
       <c r="AU37" s="32"/>
     </row>
-    <row r="38" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>166</v>
       </c>
@@ -40440,7 +40440,7 @@
       <c r="AT38" s="45"/>
       <c r="AU38" s="32"/>
     </row>
-    <row r="39" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>167</v>
       </c>
@@ -40563,7 +40563,7 @@
       <c r="AT39" s="45"/>
       <c r="AU39" s="32"/>
     </row>
-    <row r="40" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>168</v>
       </c>
@@ -40686,7 +40686,7 @@
       <c r="AT40" s="45"/>
       <c r="AU40" s="32"/>
     </row>
-    <row r="41" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>169</v>
       </c>
@@ -40809,7 +40809,7 @@
       <c r="AT41" s="45"/>
       <c r="AU41" s="32"/>
     </row>
-    <row r="42" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>170</v>
       </c>
@@ -40934,7 +40934,7 @@
       <c r="AT42" s="45"/>
       <c r="AU42" s="32"/>
     </row>
-    <row r="43" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>171</v>
       </c>
@@ -41057,7 +41057,7 @@
       <c r="AT43" s="45"/>
       <c r="AU43" s="32"/>
     </row>
-    <row r="44" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>172</v>
       </c>
@@ -41180,7 +41180,7 @@
       <c r="AT44" s="45"/>
       <c r="AU44" s="32"/>
     </row>
-    <row r="45" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>173</v>
       </c>
@@ -41301,7 +41301,7 @@
       <c r="AT45" s="45"/>
       <c r="AU45" s="32"/>
     </row>
-    <row r="46" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>174</v>
       </c>
@@ -41424,7 +41424,7 @@
       <c r="AT46" s="45"/>
       <c r="AU46" s="32"/>
     </row>
-    <row r="47" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>175</v>
       </c>
@@ -41543,7 +41543,7 @@
       <c r="AT47" s="45"/>
       <c r="AU47" s="32"/>
     </row>
-    <row r="48" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="30" t="s">
         <v>176</v>
       </c>
@@ -41666,7 +41666,7 @@
       <c r="AT48" s="11"/>
       <c r="AU48" s="12"/>
     </row>
-    <row r="49" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>132</v>
       </c>
@@ -41719,7 +41719,7 @@
       <c r="AT49" s="45"/>
       <c r="AU49" s="32"/>
     </row>
-    <row r="50" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>133</v>
       </c>
@@ -41772,7 +41772,7 @@
       </c>
       <c r="AU50" s="32"/>
     </row>
-    <row r="51" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
         <v>134</v>
       </c>
@@ -41877,7 +41877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>129</v>
       </c>
@@ -42008,7 +42008,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="53" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="30" t="s">
         <v>130</v>
       </c>
@@ -42139,7 +42139,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="54" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>136</v>
       </c>
@@ -42262,7 +42262,7 @@
       <c r="AT54" s="10"/>
       <c r="AU54" s="32"/>
     </row>
-    <row r="55" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>137</v>
       </c>
@@ -42383,7 +42383,7 @@
       <c r="AT55" s="45"/>
       <c r="AU55" s="32"/>
     </row>
-    <row r="56" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>138</v>
       </c>
@@ -42436,7 +42436,7 @@
       <c r="AT56" s="45"/>
       <c r="AU56" s="32"/>
     </row>
-    <row r="57" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>139</v>
       </c>
@@ -42491,7 +42491,7 @@
       <c r="AT57" s="45"/>
       <c r="AU57" s="32"/>
     </row>
-    <row r="58" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>140</v>
       </c>
@@ -42546,7 +42546,7 @@
       <c r="AT58" s="45"/>
       <c r="AU58" s="32"/>
     </row>
-    <row r="59" spans="1:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
         <v>141</v>
       </c>
@@ -42614,9 +42614,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
@@ -42625,7 +42625,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>277</v>
       </c>
@@ -42648,7 +42648,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>157</v>
       </c>
@@ -42671,7 +42671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>159</v>
       </c>
@@ -42694,7 +42694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>156</v>
       </c>
@@ -42717,7 +42717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="67" t="s">
         <v>158</v>
       </c>
@@ -42755,19 +42755,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>281</v>
       </c>
@@ -42775,7 +42775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>178</v>
       </c>
@@ -42783,7 +42783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>179</v>
       </c>
@@ -42791,7 +42791,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>180</v>
       </c>
@@ -42799,7 +42799,7 @@
         <v>35714.285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>181</v>
       </c>
@@ -42807,7 +42807,7 @@
         <v>42857.142857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>182</v>
       </c>
@@ -42830,19 +42830,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>281</v>
       </c>
@@ -42850,7 +42850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>178</v>
       </c>
@@ -42858,7 +42858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>179</v>
       </c>
@@ -42866,7 +42866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>180</v>
       </c>
@@ -42874,7 +42874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>181</v>
       </c>
@@ -42882,7 +42882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>182</v>
       </c>
@@ -42907,18 +42907,18 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -42929,7 +42929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -42940,7 +42940,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -42951,7 +42951,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -42962,7 +42962,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -42973,7 +42973,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -42984,7 +42984,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -42995,7 +42995,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>136</v>
       </c>
@@ -43006,7 +43006,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>137</v>
       </c>
@@ -43017,7 +43017,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>138</v>
       </c>
@@ -43028,7 +43028,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>139</v>
       </c>
@@ -43039,7 +43039,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>140</v>
       </c>
@@ -43050,7 +43050,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>141</v>
       </c>
@@ -43061,7 +43061,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>136</v>
       </c>
@@ -43072,7 +43072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>137</v>
       </c>
@@ -43083,7 +43083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>138</v>
       </c>
@@ -43094,7 +43094,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>139</v>
       </c>
@@ -43105,7 +43105,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>140</v>
       </c>
@@ -43116,7 +43116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>141</v>
       </c>
@@ -43127,7 +43127,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>136</v>
       </c>
@@ -43138,7 +43138,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>137</v>
       </c>
@@ -43149,7 +43149,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>138</v>
       </c>
@@ -43160,7 +43160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>139</v>
       </c>
@@ -43171,7 +43171,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>140</v>
       </c>
@@ -43182,7 +43182,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>141</v>
       </c>
@@ -43207,14 +43207,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>280</v>
       </c>
@@ -43222,7 +43222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="127" t="s">
         <v>142</v>
       </c>
@@ -43230,7 +43230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="127" t="s">
         <v>143</v>
       </c>
@@ -43238,7 +43238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="127" t="s">
         <v>144</v>
       </c>
@@ -43246,7 +43246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
         <v>145</v>
       </c>
@@ -43270,23 +43270,23 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.33203125" style="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>123</v>
       </c>
@@ -43307,7 +43307,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>124</v>
       </c>
@@ -43328,7 +43328,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>125</v>
       </c>
@@ -43349,7 +43349,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>126</v>
       </c>
@@ -43370,7 +43370,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>127</v>
       </c>
@@ -43405,21 +43405,21 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>213</v>
       </c>
@@ -43427,7 +43427,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
@@ -43435,7 +43435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>137</v>
       </c>
@@ -43443,7 +43443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -43451,7 +43451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -43459,7 +43459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>140</v>
       </c>
@@ -43467,7 +43467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>141</v>
       </c>
@@ -43491,14 +43491,14 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>201</v>
       </c>
@@ -43506,7 +43506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -43514,7 +43514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -43522,7 +43522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
         <v>121</v>
       </c>
@@ -43544,17 +43544,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -43562,7 +43562,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>291</v>
       </c>
@@ -43570,7 +43570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>292</v>
       </c>
@@ -43592,17 +43592,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -43610,7 +43610,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>294</v>
       </c>
@@ -43618,7 +43618,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>295</v>
       </c>
@@ -43640,24 +43640,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>296</v>
       </c>
@@ -43665,7 +43665,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
         <v>89</v>
       </c>
@@ -43673,7 +43673,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>90</v>
       </c>
@@ -43681,7 +43681,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -43689,7 +43689,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
@@ -43697,7 +43697,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -43705,7 +43705,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
@@ -43713,7 +43713,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -43721,7 +43721,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
@@ -43729,7 +43729,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
@@ -43737,7 +43737,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -43745,7 +43745,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -43753,7 +43753,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -43761,7 +43761,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -43769,7 +43769,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -43777,7 +43777,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>119</v>
       </c>
@@ -43785,7 +43785,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
         <v>120</v>
       </c>
@@ -43808,18 +43808,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>296</v>
       </c>
@@ -43827,7 +43827,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
         <v>132</v>
       </c>
@@ -43835,7 +43835,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>133</v>
       </c>
@@ -43843,7 +43843,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>134</v>
       </c>
@@ -43866,19 +43866,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -43886,7 +43886,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -43894,7 +43894,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>120</v>
       </c>
@@ -43918,30 +43918,30 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -43964,7 +43964,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -43985,7 +43985,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -44006,7 +44006,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -44027,7 +44027,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -44048,7 +44048,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -44069,7 +44069,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -44108,30 +44108,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
@@ -44154,7 +44154,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
@@ -44177,7 +44177,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -44197,7 +44197,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -44217,7 +44217,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -44237,7 +44237,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -44257,7 +44257,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_Treatment_Demo.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_Treatment_Demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E52906-D1D1-4902-8845-3E93324CE570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C1F9B5-0772-410C-B761-80F5E894D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="12" activeTab="30" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2057,10 +2057,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2363,7 +2359,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8299,7 +8295,7 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -8341,9 +8337,7 @@
       <c r="A3" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -8355,9 +8349,7 @@
         <v>137</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -8369,9 +8361,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="32"/>
@@ -8383,9 +8373,7 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="32"/>
     </row>
@@ -8397,9 +8385,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8411,9 +8397,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
+      <c r="G8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
